--- a/Output/1968/Alabama-Alaska/Alabama-Alaska.xlsx
+++ b/Output/1968/Alabama-Alaska/Alabama-Alaska.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/Alabama-Alaska/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" activeTab="1" xr2:uid="{FBA2F023-13CC-CD4A-BD0A-5F60522CADFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Alabama" sheetId="1" r:id="rId1"/>
+    <sheet name="Alaska" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alabama!$D$1:$J$131</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -1020,8 +1023,8 @@
       <c r="E5" s="2">
         <v>23285</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="F5" s="1">
+        <v>4000</v>
       </c>
       <c r="G5" s="1">
         <v>13000</v>
@@ -1029,8 +1032,8 @@
       <c r="H5" s="1">
         <v>10000</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
+      <c r="I5">
+        <v>12</v>
       </c>
       <c r="J5">
         <v>0</v>

--- a/Output/1968/Alabama-Alaska/Alabama-Alaska.xlsx
+++ b/Output/1968/Alabama-Alaska/Alabama-Alaska.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" activeTab="1" xr2:uid="{FBA2F023-13CC-CD4A-BD0A-5F60522CADFC}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{FBA2F023-13CC-CD4A-BD0A-5F60522CADFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Alabama" sheetId="1" r:id="rId1"/>
     <sheet name="Alaska" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alabama!$D$1:$J$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alabama!$E$1:$K$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -503,6 +503,18 @@
   </si>
   <si>
     <t>Huey town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,65 +888,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E95FC28-0BB1-D546-8499-B71B1358E056}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>8250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -943,111 +958,123 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>13140</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>23498</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1650</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2200</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>10300</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>23863</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1100</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2100</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2600</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>41000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>23285</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>4000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>13000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>10000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1068,21 +1095,24 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1103,79 +1133,88 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>9330</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24404</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
         <v>12</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>48000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>22129</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1400</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>5000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>7800</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1196,21 +1235,24 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1224,25 +1266,28 @@
       <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1263,21 +1308,24 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1298,21 +1346,24 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1333,21 +1384,24 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1368,21 +1422,24 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1403,21 +1460,24 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1438,21 +1498,24 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1473,21 +1536,24 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1508,21 +1574,24 @@
         <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -1543,21 +1612,24 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -1578,21 +1650,24 @@
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -1613,21 +1688,24 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -1648,21 +1726,24 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -1683,137 +1764,152 @@
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>2510</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1966</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>204</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
         <v>12</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>29217</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23609</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>3600</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>5000</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>10000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>12</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>9000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>23285</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>750</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>1200</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>1300</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>31440</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>23498</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>2600</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5000</v>
       </c>
       <c r="H28" s="1">
         <v>5000</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J28">
         <v>12</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -1834,21 +1930,24 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -1862,25 +1961,28 @@
       <c r="H30" t="s">
         <v>14</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -1901,21 +2003,24 @@
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -1936,21 +2041,24 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -1971,21 +2079,24 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2006,21 +2117,24 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -2041,50 +2155,56 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>4000</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>24139</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>50</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>265</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>450</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>12</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -2105,21 +2225,24 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -2140,53 +2263,59 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>67000</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>19779</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>12362</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>15000</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>17000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>5</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>7029</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -2195,24 +2324,27 @@
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -2233,50 +2365,56 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>58000</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>22798</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>4724</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>9000</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>11000</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>12</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -2297,108 +2435,120 @@
         <v>14</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>6894</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1965</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>302</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>1500</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>800</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>12</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>1462</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24404</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>150</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>13</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>150</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>12</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" t="s">
         <v>70</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <v>6592</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1954</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>550</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>1000</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>3000</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
         <v>154</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -2419,21 +2569,24 @@
         <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -2444,28 +2597,31 @@
       <c r="G48" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1">
         <v>33000</v>
       </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
       <c r="J48" t="s">
         <v>14</v>
       </c>
-      <c r="L48" t="s">
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -2473,12 +2629,12 @@
       <c r="F49" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1">
         <v>4565</v>
       </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
       <c r="I49" t="s">
         <v>14</v>
       </c>
@@ -2486,108 +2642,120 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
         <v>73</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
         <v>74</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
         <v>3800</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>23520</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>386</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>13</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>650</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>5</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
         <v>75</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
         <v>5000</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>24326</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>280</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>1750</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>12</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24047</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>320</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>13</v>
       </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
         <v>12</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -2608,21 +2776,24 @@
         <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
         <v>155</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -2630,12 +2801,12 @@
       <c r="F54" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1">
         <v>4565</v>
       </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
       <c r="I54" t="s">
         <v>14</v>
       </c>
@@ -2643,21 +2814,24 @@
         <v>14</v>
       </c>
       <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
         <v>77</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -2665,31 +2839,34 @@
       <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55">
         <v>500</v>
       </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
       <c r="I55" t="s">
         <v>14</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
       </c>
-      <c r="L55" t="s">
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -2710,21 +2887,24 @@
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
         <v>81</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -2745,21 +2925,24 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -2773,54 +2956,60 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58">
         <v>12</v>
       </c>
-      <c r="J58" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
         <v>71000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24636</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>900</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>18700</v>
       </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59">
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59">
         <v>12</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -2841,21 +3030,24 @@
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -2876,21 +3068,24 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
         <v>156</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -2911,50 +3106,56 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
         <v>160000</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1957</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>14000</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>33000</v>
       </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63">
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63">
         <v>12</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
         <v>91</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -2975,50 +3176,56 @@
         <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L64" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
         <v>92</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
         <v>2238</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>24807</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65">
         <v>12</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
+      <c r="C66">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -3039,21 +3246,24 @@
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L66" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
         <v>96</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
+      <c r="C67">
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -3074,21 +3284,24 @@
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L67" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
         <v>97</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
+      <c r="C68">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -3096,31 +3309,34 @@
       <c r="F68" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1">
         <v>20000</v>
       </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
       <c r="I68" t="s">
         <v>14</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
       </c>
-      <c r="L68" t="s">
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
         <v>97</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -3141,21 +3357,24 @@
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L69" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
         <v>97</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
+      <c r="C70">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -3176,21 +3395,24 @@
         <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
         <v>98</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -3211,21 +3433,24 @@
         <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L71" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
         <v>99</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -3246,21 +3471,24 @@
         <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
+      <c r="C73">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -3281,50 +3509,56 @@
         <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
         <v>109</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
         <v>9534</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>23774</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>750</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>2000</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>1900</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>12</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
         <v>111</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
+      <c r="C75">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -3345,50 +3579,56 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
         <v>112</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
         <v>4974</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24381</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>72</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>13</v>
       </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76">
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
         <v>12</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
         <v>113</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
+      <c r="C77">
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -3409,28 +3649,31 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L77" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2">
         <v>24838</v>
       </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
       <c r="G78" t="s">
         <v>14</v>
       </c>
@@ -3443,19 +3686,22 @@
       <c r="J78" t="s">
         <v>14</v>
       </c>
-      <c r="L78" t="s">
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
         <v>115</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -3476,21 +3722,24 @@
         <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L79" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
         <v>115</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
+      <c r="C80">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -3511,50 +3760,56 @@
         <v>14</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L80" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
         <v>117</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
         <v>1954</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>23255</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>355</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>13</v>
       </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81">
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81">
         <v>5</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
         <v>120</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
+      <c r="C82">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -3575,21 +3830,24 @@
         <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L82" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
         <v>120</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
+      <c r="C83">
+        <v>0</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -3610,21 +3868,24 @@
         <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L83" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
         <v>120</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
+      <c r="C84">
+        <v>0</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -3645,21 +3906,24 @@
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
         <v>120</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>14</v>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -3680,137 +3944,152 @@
         <v>14</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L85" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
         <v>121</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
         <v>6628</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="3">
         <v>19912</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>1700</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>1950</v>
       </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86">
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86">
         <v>5</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
         <v>124</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
         <v>6449</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>24051</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>500</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>1500</v>
       </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87">
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
         <v>12</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
         <v>125</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
         <v>29885</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>23377</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>1985</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>5000</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>10000</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>12</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" t="s">
         <v>129</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23712</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>157</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>200</v>
       </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89">
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89">
         <v>11</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
         <v>130</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -3831,50 +4110,56 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L90" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
         <v>131</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
         <v>17742</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>23863</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>750</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>2000</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>2900</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>12</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
         <v>132</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>14</v>
+      <c r="C92">
+        <v>0</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -3895,21 +4180,24 @@
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L92" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" t="s">
         <v>132</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>14</v>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -3930,21 +4218,24 @@
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L93" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" t="s">
         <v>133</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -3965,21 +4256,24 @@
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" t="s">
         <v>134</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -4000,79 +4294,88 @@
         <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
         <v>135</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
         <v>68615</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1957</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>4200</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>12000</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>7300</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>12</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
         <v>137</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
         <v>3000</v>
       </c>
-      <c r="E97" s="3">
+      <c r="F97" s="3">
         <v>24077</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>180</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>300</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>600</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>12</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
         <v>139</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -4093,21 +4396,24 @@
         <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L98" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
         <v>139</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>14</v>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -4128,385 +4434,484 @@
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L99" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
         <v>142</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24077</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>30</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>265</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>450</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>12</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" t="s">
         <v>28</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" t="s">
         <v>33</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" t="s">
         <v>35</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
         <v>39</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
         <v>44</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
         <v>52</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
         <v>59</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
         <v>65</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" t="s">
         <v>67</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
         <v>78</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>1</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
         <v>85</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>1</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
         <v>86</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>1</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" t="s">
         <v>89</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>1</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" t="s">
         <v>90</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>1</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
         <v>94</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>1</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
         <v>100</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>1</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" t="s">
         <v>101</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>1</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" t="s">
         <v>103</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>1</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
         <v>105</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>1</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s">
         <v>108</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>1</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
         <v>110</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>1</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
         <v>116</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
         <v>118</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>1</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
         <v>122</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>1</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" t="s">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>1</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>1</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" t="s">
         <v>136</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>1</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>1</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" t="s">
         <v>140</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>1</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" t="s">
         <v>141</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L141">
-    <sortCondition ref="B1"/>
+  <sortState ref="B2:M141">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4515,311 +4920,341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E06E4B-DF08-E04C-B80F-87AEB0965186}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>1128</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1965</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>125</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>6797</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>24108</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1700</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>6483</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1953</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1500</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
         <v>146</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>2628</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1965</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>300</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
         <v>147</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1501</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>23529</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>390</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
         <v>148</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>24685</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1800</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
         <v>149</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>3237</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21869</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1600</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1300</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1965</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
         <v>151</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>1315</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>23529</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>325</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
       <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0</v>
       </c>
     </row>
